--- a/Jupyter/Tiempo de corrida de RandomQuickSort.xlsx
+++ b/Jupyter/Tiempo de corrida de RandomQuickSort.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SteBa\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SteBa\Desktop\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D1E161-867A-4924-B3C6-BE8A65885778}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6620A147-F364-4BDE-A5BB-8F7CC1C06CDE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,6 +663,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>xlog(x)</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd" cmpd="sng">
                 <a:solidFill>
@@ -713,34 +714,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.0658490747879699E-2</c:v>
+                  <c:v>2.6117029542899999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20223442318812601</c:v>
+                  <c:v>0.17956199455233801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38719129481495701</c:v>
+                  <c:v>0.34200367193081099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56996825607170298</c:v>
+                  <c:v>0.52178221161549199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78571402756360798</c:v>
+                  <c:v>0.70755805758715096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1038824571125601</c:v>
+                  <c:v>0.89553609828438396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.14740597291827</c:v>
+                  <c:v>1.0886012931268101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.33723918176561</c:v>
+                  <c:v>1.2819128494689001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5800251180609</c:v>
+                  <c:v>1.4747877014411801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.73362657816114</c:v>
+                  <c:v>1.67249160021732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1814,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1841,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>3.0658490747879699E-2</v>
+        <v>2.6117029542899999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1851,7 +1852,7 @@
         <v>120</v>
       </c>
       <c r="C3">
-        <v>0.20223442318812601</v>
+        <v>0.17956199455233801</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1862,7 +1863,7 @@
         <v>220</v>
       </c>
       <c r="C4">
-        <v>0.38719129481495701</v>
+        <v>0.34200367193081099</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1873,7 +1874,7 @@
         <v>320</v>
       </c>
       <c r="C5">
-        <v>0.56996825607170298</v>
+        <v>0.52178221161549199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1884,7 +1885,7 @@
         <v>420</v>
       </c>
       <c r="C6">
-        <v>0.78571402756360798</v>
+        <v>0.70755805758715096</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1895,7 +1896,7 @@
         <v>520</v>
       </c>
       <c r="C7">
-        <v>1.1038824571125601</v>
+        <v>0.89553609828438396</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1906,7 +1907,7 @@
         <v>620</v>
       </c>
       <c r="C8">
-        <v>1.14740597291827</v>
+        <v>1.0886012931268101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1917,7 +1918,7 @@
         <v>720</v>
       </c>
       <c r="C9">
-        <v>1.33723918176561</v>
+        <v>1.2819128494689001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1928,7 +1929,7 @@
         <v>820</v>
       </c>
       <c r="C10">
-        <v>1.5800251180609</v>
+        <v>1.4747877014411801</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,7 +1940,7 @@
         <v>920</v>
       </c>
       <c r="C11">
-        <v>1.73362657816114</v>
+        <v>1.67249160021732</v>
       </c>
     </row>
   </sheetData>
